--- a/excel/5/616 N Oakes - Model.xlsx
+++ b/excel/5/616 N Oakes - Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,94 +444,94 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>11875</c:v>
+                  <c:v>11875.000000000029</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35431.187765837851</c:v>
+                  <c:v>35856.369434506982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22518.131219457136</c:v>
+                  <c:v>23340.451316069637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36655.964415160764</c:v>
+                  <c:v>37847.246628109395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51035.421991551906</c:v>
+                  <c:v>52567.356354405143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65662.957174080249</c:v>
+                  <c:v>67507.099479097669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80545.213317600836</c:v>
+                  <c:v>82672.984526694316</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95689.029595142521</c:v>
+                  <c:v>98071.715248232329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111101.44685727428</c:v>
+                  <c:v>113710.19647811068</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>126789.71366718633</c:v>
+                  <c:v>129595.54016655666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>142761.29251675771</c:v>
+                  <c:v>145735.07159309942</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>159023.86622903659</c:v>
+                  <c:v>162136.33576643359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>175585.34455273318</c:v>
+                  <c:v>178807.10401626964</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>192453.87095447409</c:v>
+                  <c:v>195755.38078298169</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>209637.82961476006</c:v>
+                  <c:v>212989.41061090701</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>227145.85263373633</c:v>
+                  <c:v>230517.68535143574</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>244986.82745306188</c:v>
+                  <c:v>248348.95158223971</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>263169.90450037294</c:v>
+                  <c:v>266492.21824902238</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>281704.50506300648</c:v>
+                  <c:v>284956.76453657664</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>300600.32939787046</c:v>
+                  <c:v>303752.14797593746</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>319867.3650845362</c:v>
+                  <c:v>322888.21279473539</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>339515.89562885871</c:v>
+                  <c:v>342375.09851811617</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>359556.50932463171</c:v>
+                  <c:v>362223.2488276597</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>380000.10838102532</c:v>
+                  <c:v>382443.42068600695</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>400857.91832377121</c:v>
+                  <c:v>403046.69373535528</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>422141.49767831952</c:v>
+                  <c:v>424044.47997777368</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>443862.74794341292</c:v>
+                  <c:v>445448.53374603519</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>466033.92386379954</c:v>
+                  <c:v>467270.96197349386</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>488667.64401105384</c:v>
+                  <c:v>489524.23477209691</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>511776.90168175288</c:v>
+                  <c:v>512221.19632774976</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>535375.07612251956</c:v>
@@ -758,94 +758,94 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="1">
-                  <c:v>-0.27674881971891785</c:v>
+                  <c:v>-0.24094404762046656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.41002990479444829</c:v>
+                  <c:v>-0.39409199373203746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81959616523402401</c:v>
+                  <c:v>0.80652836815880835</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52486644690307938</c:v>
+                  <c:v>0.51734643057900687</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39278431863591962</c:v>
+                  <c:v>0.38727687308754144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31792255269615943</c:v>
+                  <c:v>0.3134390905506147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26978199902786959</c:v>
+                  <c:v>0.26592197234449977</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23626923496555646</c:v>
+                  <c:v>0.23283408194697588</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21163226876490412</c:v>
+                  <c:v>0.20851013255057085</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19278570262281783</c:v>
+                  <c:v>0.18990774358450441</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18776054475542497</c:v>
+                  <c:v>0.18488088158503416</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17475705662033542</c:v>
+                  <c:v>0.17207637380496324</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16405066197362544</c:v>
+                  <c:v>0.16154079856405437</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.15509609801768556</c:v>
+                  <c:v>0.15273611116837699</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14750813162943444</c:v>
+                  <c:v>0.14528204100908873</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.14100685986861644</c:v>
+                  <c:v>0.13890220515933902</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13538401081660179</c:v>
+                  <c:v>0.13339089497356654</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13048140419346346</c:v>
+                  <c:v>0.12859183893154741</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12617674321001673</c:v>
+                  <c:v>0.12438418915437652</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12237398276234043</c:v>
+                  <c:v>0.12067301879005887</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.11899664190790081</c:v>
+                  <c:v>0.11738272249703063</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1159830615064483</c:v>
+                  <c:v>0.11445233543126937</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.11328297747007308</c:v>
+                  <c:v>0.1118321501397256</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.11085500264071901</c:v>
+                  <c:v>0.10948123005894471</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.10866474810890762</c:v>
+                  <c:v>0.1073655541221174</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1066834022273823</c:v>
+                  <c:v>0.1054566131817062</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1048866423067609</c:v>
+                  <c:v>0.10373033489487839</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10325379153827673</c:v>
+                  <c:v>0.10216625076405812</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10176715901213222</c:v>
+                  <c:v>0.10074684400471258</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.10041151806226692</c:v>
+                  <c:v>9.9457034043695505E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.10722043076923082</c:v>
@@ -3132,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3224,7 +3224,8 @@
         <v>-19222.72</v>
       </c>
       <c r="H2" s="16">
-        <v>3.6249999999999998E-4</v>
+        <f>0.03625%/12</f>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I2" s="13">
         <f>(A2-2015)*12</f>
@@ -3232,14 +3233,14 @@
       </c>
       <c r="J2" s="15">
         <f t="shared" ref="J2:J32" si="0">-225625*((1+H2)^360-(1+H2)^I2)/((1+H2)^360-1)</f>
-        <v>-225625</v>
+        <v>-225624.99999999997</v>
       </c>
       <c r="K2" s="15">
         <v>237500</v>
       </c>
       <c r="L2" s="15">
         <f t="shared" ref="L2:L65" si="1">J2+K2</f>
-        <v>11875</v>
+        <v>11875.000000000029</v>
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="17"/>
@@ -3273,30 +3274,31 @@
         <v>-9176.42</v>
       </c>
       <c r="H3" s="16">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" ref="H3:H32" si="2">0.03625%/12</f>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I3:I32" si="2">(A3-2015)*12</f>
+        <f t="shared" ref="I3:I32" si="3">(A3-2015)*12</f>
         <v>12</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>-218568.81223416215</v>
+        <v>-218143.63056549302</v>
       </c>
       <c r="K3" s="15">
         <v>254000</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="1"/>
-        <v>35431.187765837851</v>
+        <v>35856.369434506982</v>
       </c>
       <c r="M3" s="18">
         <f>L3-L2+12*(C3+D3+E3+F3)+G3</f>
-        <v>-3286.3922341621492</v>
+        <v>-2861.2105654930474</v>
       </c>
       <c r="N3" s="19">
         <f>M3/L2</f>
-        <v>-0.27674881971891785</v>
+        <v>-0.24094404762046656</v>
       </c>
       <c r="O3" s="18">
         <f>12*(C3+D3+E3+F3)+G3</f>
@@ -3328,33 +3330,34 @@
         <v>-370.51</v>
       </c>
       <c r="H4" s="16">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I4" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" si="0"/>
-        <v>-211481.86878054286</v>
+        <v>-210659.54868393036</v>
       </c>
       <c r="K4" s="15">
         <v>234000</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="1"/>
-        <v>22518.131219457136</v>
+        <v>23340.451316069637</v>
       </c>
       <c r="M4" s="18">
-        <f t="shared" ref="M4:M67" si="3">L4-L3+12*(C4+D4+E4+F4)+G4</f>
-        <v>-14527.846546380715</v>
+        <f t="shared" ref="M4:M67" si="4">L4-L3+12*(C4+D4+E4+F4)+G4</f>
+        <v>-14130.708118437346</v>
       </c>
       <c r="N4" s="19">
-        <f t="shared" ref="N4:N67" si="4">M4/L3</f>
-        <v>-0.41002990479444829</v>
+        <f t="shared" ref="N4:N67" si="5">M4/L3</f>
+        <v>-0.39409199373203746</v>
       </c>
       <c r="O4" s="18">
-        <f t="shared" ref="O4:O67" si="5">12*(C4+D4+E4+F4)+G4</f>
+        <f t="shared" ref="O4:O67" si="6">12*(C4+D4+E4+F4)+G4</f>
         <v>-1614.7900000000006</v>
       </c>
     </row>
@@ -3372,7 +3375,7 @@
         <v>-117</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E4:E67" si="6">E4*(1+B5)</f>
+        <f t="shared" ref="E5:E67" si="7">E4*(1+B5)</f>
         <v>-394.20160000000004</v>
       </c>
       <c r="F5" s="15">
@@ -3380,15 +3383,16 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="0"/>
-        <v>-204364.03558483924</v>
+        <v>-203172.75337189061</v>
       </c>
       <c r="K5" s="5">
         <f>K4*(1+B5)</f>
@@ -3396,18 +3400,18 @@
       </c>
       <c r="L5" s="5">
         <f t="shared" si="1"/>
-        <v>36655.964415160764</v>
+        <v>37847.246628109395</v>
       </c>
       <c r="M5" s="20">
-        <f t="shared" si="3"/>
-        <v>18455.773995703625</v>
+        <f t="shared" si="4"/>
+        <v>18824.736112039755</v>
       </c>
       <c r="N5" s="21">
-        <f t="shared" si="4"/>
-        <v>0.81959616523402401</v>
+        <f t="shared" si="5"/>
+        <v>0.80652836815880835</v>
       </c>
       <c r="O5" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4317.9407999999985</v>
       </c>
     </row>
@@ -3425,7 +3429,7 @@
         <v>-117</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-406.02764800000006</v>
       </c>
       <c r="F6" s="5">
@@ -3436,34 +3440,35 @@
         <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="0"/>
-        <v>-197215.1780084481</v>
+        <v>-195683.24364559486</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" ref="K6:K68" si="7">K5*(1+B6)</f>
+        <f t="shared" ref="K6:K68" si="8">K5*(1+B6)</f>
         <v>248250.6</v>
       </c>
       <c r="L6" s="5">
         <f>J6+K6</f>
-        <v>51035.421991551906</v>
+        <v>52567.356354405143</v>
       </c>
       <c r="M6" s="20">
-        <f t="shared" si="3"/>
-        <v>19239.485800391143</v>
+        <f t="shared" si="4"/>
+        <v>19580.13795029575</v>
       </c>
       <c r="N6" s="21">
-        <f t="shared" si="4"/>
-        <v>0.52486644690307938</v>
+        <f t="shared" si="5"/>
+        <v>0.51734643057900687</v>
       </c>
       <c r="O6" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4860.0282239999997</v>
       </c>
     </row>
@@ -3481,45 +3486,46 @@
         <v>-117</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-418.20847744000008</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F68" si="8">F6*(1+B7)</f>
+        <f t="shared" ref="F7:F68" si="9">F6*(1+B7)</f>
         <v>2015.71</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="0"/>
-        <v>-190035.16082591977</v>
+        <v>-188191.01852090235</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>255698.11800000002</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="1"/>
-        <v>65662.957174080249</v>
+        <v>67507.099479097669</v>
       </c>
       <c r="M7" s="20">
-        <f t="shared" si="3"/>
-        <v>20045.913453248344</v>
+        <f t="shared" si="4"/>
+        <v>20358.121395412527</v>
       </c>
       <c r="N7" s="21">
-        <f t="shared" si="4"/>
-        <v>0.39278431863591962</v>
+        <f t="shared" si="5"/>
+        <v>0.38727687308754144</v>
       </c>
       <c r="O7" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5418.3782707199998</v>
       </c>
     </row>
@@ -3537,45 +3543,46 @@
         <v>-117</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-430.75473176320008</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2076.1813000000002</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="0"/>
-        <v>-182823.84822239919</v>
+        <v>-180696.07701330571</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>263369.06154000002</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="1"/>
-        <v>80545.213317600836</v>
+        <v>82672.984526694316</v>
       </c>
       <c r="M8" s="20">
-        <f t="shared" si="3"/>
-        <v>20875.734962362189</v>
+        <f t="shared" si="4"/>
+        <v>21159.363866438249</v>
       </c>
       <c r="N8" s="21">
-        <f t="shared" si="4"/>
-        <v>0.31792255269615943</v>
+        <f t="shared" si="5"/>
+        <v>0.3134390905506147</v>
       </c>
       <c r="O8" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5993.4788188416023</v>
       </c>
     </row>
@@ -3594,45 +3601,46 @@
         <v>-117</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-443.6773737160961</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2138.4667390000004</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
       </c>
       <c r="H9" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="0"/>
-        <v>-175581.10379105754</v>
+        <v>-173198.41813796773</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>271270.13338620006</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="1"/>
-        <v>95689.029595142521</v>
+        <v>98071.715248232329</v>
       </c>
       <c r="M9" s="20">
-        <f t="shared" si="3"/>
-        <v>21729.648660948536</v>
+        <f t="shared" si="4"/>
+        <v>21984.563104944864</v>
       </c>
       <c r="N9" s="21">
-        <f t="shared" si="4"/>
-        <v>0.26978199902786959</v>
+        <f t="shared" si="5"/>
+        <v>0.26592197234449977</v>
       </c>
       <c r="O9" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6585.8323834068515</v>
       </c>
     </row>
@@ -3651,45 +3659,46 @@
         <v>-117</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-456.98769492757901</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2202.6207411700007</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="0"/>
-        <v>-168306.79053051182</v>
+        <v>-165698.04090967542</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>279408.2373877861</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="1"/>
-        <v>111101.44685727428</v>
+        <v>113710.19647811068</v>
       </c>
       <c r="M10" s="20">
-        <f t="shared" si="3"/>
-        <v>22608.373817040814</v>
+        <f t="shared" si="4"/>
+        <v>22834.437784787409</v>
       </c>
       <c r="N10" s="21">
-        <f t="shared" si="4"/>
-        <v>0.23626923496555646</v>
+        <f t="shared" si="5"/>
+        <v>0.23283408194697588</v>
       </c>
       <c r="O10" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7195.9565549090594</v>
       </c>
     </row>
@@ -3708,45 +3717,46 @@
         <v>-117</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-470.6973257754064</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2268.6993634051009</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="0"/>
-        <v>-161000.77084223338</v>
+        <v>-158194.94434286305</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>287790.48450941971</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="1"/>
-        <v>126789.71366718633</v>
+        <v>129595.54016655666</v>
       </c>
       <c r="M11" s="20">
-        <f t="shared" si="3"/>
-        <v>23512.651261468382</v>
+        <f t="shared" si="4"/>
+        <v>23709.728140002313</v>
       </c>
       <c r="N11" s="21">
-        <f t="shared" si="4"/>
-        <v>0.21163226876490412</v>
+        <f t="shared" si="5"/>
+        <v>0.20851013255057085</v>
       </c>
       <c r="O11" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7824.3844515563342</v>
       </c>
     </row>
@@ -3765,45 +3775,46 @@
         <v>-117</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-484.81824554866859</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2336.7603443072539</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="0"/>
-        <v>-153662.90652794458</v>
+        <v>-150689.12745160286</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>296424.19904470228</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="1"/>
-        <v>142761.29251675771</v>
+        <v>145735.07159309942</v>
       </c>
       <c r="M12" s="20">
-        <f t="shared" si="3"/>
-        <v>24443.244034674404</v>
+        <f t="shared" si="4"/>
+        <v>24611.196611645784</v>
       </c>
       <c r="N12" s="21">
-        <f t="shared" si="4"/>
-        <v>0.19278570262281783</v>
+        <f t="shared" si="5"/>
+        <v>0.18990774358450441</v>
       </c>
       <c r="O12" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8471.6651851030256</v>
       </c>
     </row>
@@ -3822,45 +3833,46 @@
         <v>0</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-499.36279291512864</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2406.8631546364718</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
       </c>
       <c r="H13" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="0"/>
-        <v>-146293.05878700677</v>
+        <v>-143180.58924960977</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>305316.92501604336</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="1"/>
-        <v>159023.86622903659</v>
+        <v>162136.33576643359</v>
       </c>
       <c r="M13" s="20">
-        <f t="shared" si="3"/>
-        <v>26804.938052935002</v>
+        <f t="shared" si="4"/>
+        <v>26943.62851399029</v>
       </c>
       <c r="N13" s="21">
-        <f t="shared" si="4"/>
-        <v>0.18776054475542497</v>
+        <f t="shared" si="5"/>
+        <v>0.18488088158503416</v>
       </c>
       <c r="O13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10542.364340656117</v>
       </c>
     </row>
@@ -3879,45 +3891,46 @@
         <v>0</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-514.34367670258246</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2479.0690492755662</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="0"/>
-        <v>-138891.08821379149</v>
+        <v>-135669.32875025502</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>314476.43276652467</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="1"/>
-        <v>175585.34455273318</v>
+        <v>178807.10401626964</v>
       </c>
       <c r="M14" s="20">
-        <f t="shared" si="3"/>
-        <v>27790.542794572393</v>
+        <f t="shared" si="4"/>
+        <v>27899.832720711856</v>
       </c>
       <c r="N14" s="21">
-        <f t="shared" si="4"/>
-        <v>0.17475705662033542</v>
+        <f t="shared" si="5"/>
+        <v>0.17207637380496324</v>
       </c>
       <c r="O14" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11229.064470875803</v>
       </c>
     </row>
@@ -3936,45 +3949,46 @@
         <v>0</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-529.77398700365995</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2553.4411207538333</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
       </c>
       <c r="H15" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="0"/>
-        <v>-131456.85479504633</v>
+        <v>-128155.3449665387</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>323910.72574952041</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="1"/>
-        <v>192453.87095447409</v>
+        <v>195755.38078298169</v>
       </c>
       <c r="M15" s="20">
-        <f t="shared" si="3"/>
-        <v>28804.892006742986</v>
+        <f t="shared" si="4"/>
+        <v>28884.64237171413</v>
       </c>
       <c r="N15" s="21">
-        <f t="shared" si="4"/>
-        <v>0.16405066197362544</v>
+        <f t="shared" si="5"/>
+        <v>0.16154079856405437</v>
       </c>
       <c r="O15" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11936.365605002078</v>
       </c>
     </row>
@@ -3993,45 +4007,46 @@
         <v>0</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-545.66720661376974</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2630.0443543764482</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="0"/>
-        <v>-123990.21790724598</v>
+        <v>-120638.63691109903</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>333628.04752200603</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="1"/>
-        <v>209637.82961476006</v>
+        <v>212989.41061090701</v>
       </c>
       <c r="M16" s="20">
-        <f t="shared" si="3"/>
-        <v>29848.84443343812</v>
+        <f t="shared" si="4"/>
+        <v>29898.91560107746</v>
       </c>
       <c r="N16" s="21">
-        <f t="shared" si="4"/>
-        <v>0.15509609801768556</v>
+        <f t="shared" si="5"/>
+        <v>0.15273611116837699</v>
       </c>
       <c r="O16" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12664.885773152142</v>
       </c>
     </row>
@@ -4050,45 +4065,46 @@
         <v>0</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-562.03722281218279</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2708.9456850077418</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" si="0"/>
-        <v>-116491.03631392989</v>
+        <v>-113119.20359623049</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>343636.88894766622</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" si="1"/>
-        <v>227145.85263373633</v>
+        <v>230517.68535143574</v>
       </c>
       <c r="M17" s="20">
-        <f t="shared" si="3"/>
-        <v>30923.284565322974</v>
+        <f t="shared" si="4"/>
+        <v>30943.536286875431</v>
       </c>
       <c r="N17" s="21">
-        <f t="shared" si="4"/>
-        <v>0.14750813162943444</v>
+        <f t="shared" si="5"/>
+        <v>0.14528204100908873</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13415.261546346708</v>
       </c>
     </row>
@@ -4107,45 +4123,46 @@
         <v>0</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-578.89833949654826</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2790.214055557974</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" si="0"/>
-        <v>-108959.16816303431</v>
+        <v>-105597.04403385648</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>353945.99561609619</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="1"/>
-        <v>244986.82745306188</v>
+        <v>248348.95158223971</v>
       </c>
       <c r="M18" s="20">
-        <f t="shared" si="3"/>
-        <v>32029.123412062661</v>
+        <f t="shared" si="4"/>
+        <v>32019.414823541083</v>
       </c>
       <c r="N18" s="21">
-        <f t="shared" si="4"/>
-        <v>0.14100685986861644</v>
+        <f t="shared" si="5"/>
+        <v>0.13890220515933902</v>
       </c>
       <c r="O18" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14188.148592737109</v>
       </c>
     </row>
@@ -4164,45 +4181,46 @@
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-596.26528968144476</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2873.9204772247135</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
       </c>
       <c r="H19" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" si="0"/>
-        <v>-101394.47098420611</v>
+        <v>-98072.157235556704</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>364564.37548457907</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="1"/>
-        <v>263169.90450037294</v>
+        <v>266492.21824902238</v>
       </c>
       <c r="M19" s="20">
-        <f t="shared" si="3"/>
-        <v>33167.299297830286</v>
+        <f t="shared" si="4"/>
+        <v>33127.488917301896</v>
       </c>
       <c r="N19" s="21">
-        <f t="shared" si="4"/>
-        <v>0.13538401081660179</v>
+        <f t="shared" si="5"/>
+        <v>0.13339089497356654</v>
       </c>
       <c r="O19" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14984.222250519226</v>
       </c>
     </row>
@@ -4221,45 +4239,46 @@
         <v>0</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-614.15324837188814</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2960.1380915414552</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
       </c>
       <c r="H20" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="J20" s="5">
         <f t="shared" si="0"/>
-        <v>-93796.80168610996</v>
+        <v>-90544.542212539833</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>375501.30674911645</v>
       </c>
       <c r="L20" s="5">
         <f t="shared" si="1"/>
-        <v>281704.50506300648</v>
+        <v>284956.76453657664</v>
       </c>
       <c r="M20" s="20">
-        <f t="shared" si="3"/>
-        <v>34338.778680668343</v>
+        <f t="shared" si="4"/>
+        <v>34268.724405589062</v>
       </c>
       <c r="N20" s="21">
-        <f t="shared" si="4"/>
-        <v>0.13048140419346346</v>
+        <f t="shared" si="5"/>
+        <v>0.12859183893154741</v>
       </c>
       <c r="O20" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15804.178118034804</v>
       </c>
     </row>
@@ -4278,45 +4297,46 @@
         <v>0</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-632.57784582304475</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3048.9422342876987</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
       </c>
       <c r="H21" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" si="0"/>
-        <v>-86166.016553719484</v>
+        <v>-83014.197975652482</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>386766.34595158993</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" si="1"/>
-        <v>300600.32939787046</v>
+        <v>303752.14797593746</v>
       </c>
       <c r="M21" s="20">
-        <f t="shared" si="3"/>
-        <v>35544.556996439831</v>
+        <f t="shared" si="4"/>
+        <v>35444.116100936677</v>
       </c>
       <c r="N21" s="21">
-        <f t="shared" si="4"/>
-        <v>0.12617674321001673</v>
+        <f t="shared" si="5"/>
+        <v>0.12438418915437652</v>
       </c>
       <c r="O21" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16648.732661575847</v>
       </c>
     </row>
@@ -4335,45 +4355,46 @@
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-651.55518119773615</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3140.4105013163298</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
       </c>
       <c r="H22" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="J22" s="5">
         <f t="shared" si="0"/>
-        <v>-78501.971245601409</v>
+        <v>-75481.12353540225</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>398369.33633013762</v>
       </c>
       <c r="L22" s="5">
         <f t="shared" si="1"/>
-        <v>319867.3650845362</v>
+        <v>322888.21279473539</v>
       </c>
       <c r="M22" s="20">
-        <f t="shared" si="3"/>
-        <v>36785.659528088858</v>
+        <f t="shared" si="4"/>
+        <v>36654.688660221043</v>
       </c>
       <c r="N22" s="21">
-        <f t="shared" si="4"/>
-        <v>0.12237398276234043</v>
+        <f t="shared" si="5"/>
+        <v>0.12067301879005887</v>
       </c>
       <c r="O22" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17518.623841423123</v>
       </c>
     </row>
@@ -4392,45 +4413,46 @@
         <v>0</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-671.1018366336682</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3234.6228163558199</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="J23" s="5">
         <f t="shared" si="0"/>
-        <v>-70804.520791183051</v>
+        <v>-67945.31790192562</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>410320.41642004176</v>
       </c>
       <c r="L23" s="5">
         <f t="shared" si="1"/>
-        <v>339515.89562885871</v>
+        <v>342375.09851811617</v>
       </c>
       <c r="M23" s="20">
-        <f t="shared" si="3"/>
-        <v>38063.142300988329</v>
+        <f t="shared" si="4"/>
+        <v>37901.497480046601</v>
       </c>
       <c r="N23" s="21">
-        <f t="shared" si="4"/>
-        <v>0.11899664190790081</v>
+        <f t="shared" si="5"/>
+        <v>0.11738272249703063</v>
       </c>
       <c r="O23" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18414.611756665821</v>
       </c>
     </row>
@@ -4449,45 +4471,46 @@
         <v>0</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-691.23489173267831</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3331.6615008464946</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
       </c>
       <c r="H24" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>264</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" si="0"/>
-        <v>-63073.519588011302</v>
+        <v>-60406.780084983329</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>422630.02891264303</v>
       </c>
       <c r="L24" s="5">
         <f t="shared" si="1"/>
-        <v>359556.50932463171</v>
+        <v>362223.2488276597</v>
       </c>
       <c r="M24" s="20">
-        <f t="shared" si="3"/>
-        <v>39378.093005138799</v>
+        <f t="shared" si="4"/>
+        <v>39185.629618909326</v>
       </c>
       <c r="N24" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1159830615064483</v>
+        <f t="shared" si="5"/>
+        <v>0.11445233543126937</v>
       </c>
       <c r="O24" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19337.479309365794</v>
       </c>
     </row>
@@ -4506,45 +4529,46 @@
         <v>0</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-711.97193848465872</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3431.6113458718896</v>
       </c>
       <c r="G25" s="5">
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>276</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="0"/>
-        <v>-55308.821398997017</v>
+        <v>-52865.50909401539</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>435308.92978002236</v>
       </c>
       <c r="L25" s="5">
         <f t="shared" si="1"/>
-        <v>380000.10838102532</v>
+        <v>382443.42068600695</v>
       </c>
       <c r="M25" s="20">
-        <f t="shared" si="3"/>
-        <v>40731.631945040375</v>
+        <f t="shared" si="4"/>
+        <v>40508.204746994023</v>
       </c>
       <c r="N25" s="21">
-        <f t="shared" si="4"/>
-        <v>0.11328297747007308</v>
+        <f t="shared" si="5"/>
+        <v>0.1118321501397256</v>
       </c>
       <c r="O25" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20288.032888646769</v>
       </c>
     </row>
@@ -4563,45 +4587,46 @@
         <v>0</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-733.33109663919845</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3534.5596862480465</v>
       </c>
       <c r="G26" s="5">
         <v>0</v>
       </c>
       <c r="H26" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>288</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="0"/>
-        <v>-47510.279349651828</v>
+        <v>-45321.503938067792</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>448368.19767342304</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" si="1"/>
-        <v>400857.91832377121</v>
+        <v>403046.69373535528</v>
       </c>
       <c r="M26" s="20">
-        <f t="shared" si="3"/>
-        <v>42124.913018052073</v>
+        <f t="shared" si="4"/>
+        <v>41870.376124654504</v>
       </c>
       <c r="N26" s="21">
-        <f t="shared" si="4"/>
-        <v>0.11085500264071901</v>
+        <f t="shared" si="5"/>
+        <v>0.10948123005894471</v>
       </c>
       <c r="O26" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21267.103075306179</v>
       </c>
     </row>
@@ -4620,45 +4645,46 @@
         <v>0</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-755.33102953837442</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3640.5964768354879</v>
       </c>
       <c r="G27" s="5">
         <v>0</v>
       </c>
       <c r="H27" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="0"/>
-        <v>-39677.745925306233</v>
+        <v>-37774.763625852051</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>461819.24360362574</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="1"/>
-        <v>422141.49767831952</v>
+        <v>424044.47997777368</v>
       </c>
       <c r="M27" s="20">
-        <f t="shared" si="3"/>
-        <v>43559.124722113665</v>
+        <f t="shared" si="4"/>
+        <v>43273.331609983761</v>
       </c>
       <c r="N27" s="21">
-        <f t="shared" si="4"/>
-        <v>0.10866474810890762</v>
+        <f t="shared" si="5"/>
+        <v>0.1073655541221174</v>
       </c>
       <c r="O27" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22275.545367565363</v>
       </c>
     </row>
@@ -4677,45 +4703,46 @@
         <v>0</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-777.99096042452572</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3749.8143711405528</v>
       </c>
       <c r="G28" s="5">
         <v>0</v>
       </c>
       <c r="H28" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>312</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="0"/>
-        <v>-31811.072968321601</v>
+        <v>-30225.287165699367</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>475673.82091173454</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="1"/>
-        <v>443862.74794341292</v>
+        <v>445448.53374603519</v>
       </c>
       <c r="M28" s="20">
-        <f t="shared" si="3"/>
-        <v>45035.491193685732</v>
+        <f t="shared" si="4"/>
+        <v>44718.294696853838</v>
       </c>
       <c r="N28" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1066834022273823</v>
+        <f t="shared" si="5"/>
+        <v>0.1054566131817062</v>
       </c>
       <c r="O28" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23314.240928592328</v>
       </c>
     </row>
@@ -4734,45 +4761,46 @@
         <v>0</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-801.33068923726148</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3862.3088022747693</v>
       </c>
       <c r="G29" s="5">
         <v>0</v>
       </c>
       <c r="H29" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>324</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="0"/>
-        <v>-23910.111675287102</v>
+        <v>-22673.073565592738</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>489944.03553908662</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="1"/>
-        <v>466033.92386379954</v>
+        <v>467270.96197349386</v>
       </c>
       <c r="M29" s="20">
-        <f t="shared" si="3"/>
-        <v>46555.27327683672</v>
+        <f t="shared" si="4"/>
+        <v>46206.525583908769</v>
       </c>
       <c r="N29" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1048866423067609</v>
+        <f t="shared" si="5"/>
+        <v>0.10373033489487839</v>
       </c>
       <c r="O29" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24384.097356450096</v>
       </c>
     </row>
@@ -4791,45 +4819,46 @@
         <v>0</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-825.37060991437932</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3978.1780663430122</v>
       </c>
       <c r="G30" s="5">
         <v>0</v>
       </c>
       <c r="H30" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>336</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="0"/>
-        <v>-15974.712594205414</v>
+        <v>-15118.121833162351</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>504642.35660525924</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="1"/>
-        <v>488667.64401105384</v>
+        <v>489524.23477209691</v>
       </c>
       <c r="M30" s="20">
-        <f t="shared" si="3"/>
-        <v>48119.769624397886</v>
+        <f t="shared" si="4"/>
+        <v>47739.322275746643</v>
       </c>
       <c r="N30" s="21">
-        <f t="shared" si="4"/>
-        <v>0.10325379153827673</v>
+        <f t="shared" si="5"/>
+        <v>0.10216625076405812</v>
       </c>
       <c r="O30" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25486.049477143592</v>
       </c>
     </row>
@@ -4848,45 +4877,46 @@
         <v>0</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-850.1317282118107</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4097.5234083333025</v>
       </c>
       <c r="G31" s="5">
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>348</v>
       </c>
       <c r="J31" s="5">
         <f t="shared" si="0"/>
-        <v>-8004.7256216641408</v>
+        <v>-7560.4309756672683</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>519781.62730341702</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="1"/>
-        <v>511776.90168175288</v>
+        <v>512221.19632774976</v>
       </c>
       <c r="M31" s="20">
-        <f t="shared" si="3"/>
-        <v>49730.317832156936</v>
+        <f t="shared" si="4"/>
+        <v>49318.021717110743</v>
       </c>
       <c r="N31" s="21">
-        <f t="shared" si="4"/>
-        <v>0.10176715901213222</v>
+        <f t="shared" si="5"/>
+        <v>0.10074684400471258</v>
       </c>
       <c r="O31" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26621.060161457899</v>
       </c>
     </row>
@@ -4905,21 +4935,22 @@
         <v>0</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-875.63568005816501</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4220.4491105833022</v>
       </c>
       <c r="G32" s="5">
         <v>0</v>
       </c>
       <c r="H32" s="8">
-        <v>3.6249999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.020833333333333E-5</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="J32" s="5">
@@ -4927,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>535375.07612251956</v>
       </c>
       <c r="L32" s="5">
@@ -4935,15 +4966,15 @@
         <v>535375.07612251956</v>
       </c>
       <c r="M32" s="20">
-        <f t="shared" si="3"/>
-        <v>51388.295607068329</v>
+        <f t="shared" si="4"/>
+        <v>50944.000961071448</v>
       </c>
       <c r="N32" s="21">
-        <f t="shared" si="4"/>
-        <v>0.10041151806226692</v>
+        <f t="shared" si="5"/>
+        <v>9.9457034043695505E-2</v>
       </c>
       <c r="O32" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27790.121166301644</v>
       </c>
     </row>
@@ -4962,11 +4993,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-901.90475045991002</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4347.0625839008017</v>
       </c>
       <c r="G33" s="5">
@@ -4978,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>551436.32840619516</v>
       </c>
       <c r="L33" s="5">
@@ -4986,15 +5017,15 @@
         <v>551436.32840619516</v>
       </c>
       <c r="M33" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57403.146284966293</v>
       </c>
       <c r="N33" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923082</v>
       </c>
       <c r="O33" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41341.894001290697</v>
       </c>
     </row>
@@ -5013,11 +5044,11 @@
         <v>0</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-928.96189297370734</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4477.4744614178262</v>
       </c>
       <c r="G34" s="5">
@@ -5029,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>567979.41825838108</v>
       </c>
       <c r="L34" s="5">
@@ -5037,15 +5068,15 @@
         <v>567979.41825838108</v>
       </c>
       <c r="M34" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59125.240673515349</v>
       </c>
       <c r="N34" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923095</v>
       </c>
       <c r="O34" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42582.150821329429</v>
       </c>
     </row>
@@ -5064,11 +5095,11 @@
         <v>0</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-956.83074976291857</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4611.7986952603615</v>
       </c>
       <c r="G35" s="5">
@@ -5080,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>585018.80080613249</v>
       </c>
       <c r="L35" s="5">
@@ -5088,15 +5119,15 @@
         <v>585018.80080613249</v>
       </c>
       <c r="M35" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60898.997893720734</v>
       </c>
       <c r="N35" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923081</v>
       </c>
       <c r="O35" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43859.615345969316</v>
       </c>
     </row>
@@ -5115,11 +5146,11 @@
         <v>0</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-985.53567225580616</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4750.1526561181727</v>
       </c>
       <c r="G36" s="5">
@@ -5131,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>602569.36483031651</v>
       </c>
       <c r="L36" s="5">
@@ -5139,15 +5170,15 @@
         <v>602569.36483031651</v>
       </c>
       <c r="M36" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62725.967830532412</v>
       </c>
       <c r="N36" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923091</v>
       </c>
       <c r="O36" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45175.403806348397</v>
       </c>
     </row>
@@ -5166,11 +5197,11 @@
         <v>0</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1015.1017424234803</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4892.6572358017183</v>
       </c>
       <c r="G37" s="5">
@@ -5182,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>620646.44577522599</v>
       </c>
       <c r="L37" s="5">
@@ -5190,15 +5221,15 @@
         <v>620646.44577522599</v>
       </c>
       <c r="M37" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64607.746865448338</v>
       </c>
       <c r="N37" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923082</v>
       </c>
       <c r="O37" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46530.665920538857</v>
       </c>
     </row>
@@ -5217,11 +5248,11 @@
         <v>0</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1045.5547946961847</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5039.4369528757697</v>
       </c>
       <c r="G38" s="5">
@@ -5233,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>639265.83914848277</v>
       </c>
       <c r="L38" s="5">
@@ -5241,15 +5272,15 @@
         <v>639265.83914848277</v>
       </c>
       <c r="M38" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66545.979271411808</v>
       </c>
       <c r="N38" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923085</v>
       </c>
       <c r="O38" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47926.585898155019</v>
       </c>
     </row>
@@ -5268,11 +5299,11 @@
         <v>0</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1076.9214385370703</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5190.6200614620429</v>
       </c>
       <c r="G39" s="5">
@@ -5284,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>658443.81432293728</v>
       </c>
       <c r="L39" s="5">
@@ -5292,15 +5323,15 @@
         <v>658443.81432293728</v>
       </c>
       <c r="M39" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68542.358649554168</v>
       </c>
       <c r="N39" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923087</v>
       </c>
       <c r="O39" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>49364.383475099668</v>
       </c>
     </row>
@@ -5319,11 +5350,11 @@
         <v>0</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1109.2290816931825</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5346.3386633059044</v>
       </c>
       <c r="G40" s="5">
@@ -5335,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>678197.12875262543</v>
       </c>
       <c r="L40" s="5">
@@ -5343,15 +5374,15 @@
         <v>678197.12875262543</v>
       </c>
       <c r="M40" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70598.629409040819</v>
       </c>
       <c r="N40" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923089</v>
       </c>
       <c r="O40" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50845.314979352661</v>
       </c>
     </row>
@@ -5370,11 +5401,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1142.505954143978</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5506.7288232050814</v>
       </c>
       <c r="G41" s="5">
@@ -5386,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>698543.04261520423</v>
       </c>
       <c r="L41" s="5">
@@ -5394,15 +5425,15 @@
         <v>698543.04261520423</v>
       </c>
       <c r="M41" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72716.588291312044</v>
       </c>
       <c r="N41" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923089</v>
       </c>
       <c r="O41" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52370.67442873324</v>
       </c>
     </row>
@@ -5421,11 +5452,11 @@
         <v>0</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1176.7811327682973</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5671.9306879012338</v>
       </c>
       <c r="G42" s="5">
@@ -5437,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>719499.33389366034</v>
       </c>
       <c r="L42" s="5">
@@ -5445,15 +5476,15 @@
         <v>719499.33389366034</v>
       </c>
       <c r="M42" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74898.085940051344</v>
       </c>
       <c r="N42" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1072204307692308</v>
       </c>
       <c r="O42" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53941.794661595239</v>
       </c>
     </row>
@@ -5472,11 +5503,11 @@
         <v>0</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1212.0845667513463</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5842.0886085382708</v>
       </c>
       <c r="G43" s="5">
@@ -5488,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>741084.31391047011</v>
       </c>
       <c r="L43" s="5">
@@ -5496,15 +5527,15 @@
         <v>741084.31391047011</v>
       </c>
       <c r="M43" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77145.028518252861</v>
       </c>
       <c r="N43" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923077</v>
       </c>
       <c r="O43" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55560.048501443089</v>
       </c>
     </row>
@@ -5523,11 +5554,11 @@
         <v>0</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1248.4471037538867</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6017.3512667944187</v>
       </c>
       <c r="G44" s="5">
@@ -5539,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>763316.84332778421</v>
       </c>
       <c r="L44" s="5">
@@ -5547,15 +5578,15 @@
         <v>763316.84332778421</v>
       </c>
       <c r="M44" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79459.379373800475</v>
       </c>
       <c r="N44" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923081</v>
       </c>
       <c r="O44" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57226.849956486381</v>
       </c>
     </row>
@@ -5574,11 +5605,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1285.9005168665033</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6197.8718047982511</v>
       </c>
       <c r="G45" s="5">
@@ -5590,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>786216.34862761782</v>
       </c>
       <c r="L45" s="5">
@@ -5598,15 +5629,15 @@
         <v>786216.34862761782</v>
       </c>
       <c r="M45" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81843.160755014571</v>
       </c>
       <c r="N45" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923092</v>
       </c>
       <c r="O45" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58943.655455180968</v>
       </c>
     </row>
@@ -5625,11 +5656,11 @@
         <v>0</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1324.4775323724984</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6383.8079589421986</v>
       </c>
       <c r="G46" s="5">
@@ -5641,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>809802.83908644633</v>
       </c>
       <c r="L46" s="5">
@@ -5649,15 +5680,15 @@
         <v>809802.83908644633</v>
       </c>
       <c r="M46" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84298.455577664921</v>
       </c>
       <c r="N46" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1072204307692308</v>
       </c>
       <c r="O46" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60711.965118836408</v>
       </c>
     </row>
@@ -5676,11 +5707,11 @@
         <v>0</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1364.2118583436734</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6575.3221977104649</v>
       </c>
       <c r="G47" s="5">
@@ -5692,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>834096.92425903969</v>
       </c>
       <c r="L47" s="5">
@@ -5700,15 +5731,15 @@
         <v>834096.92425903969</v>
       </c>
       <c r="M47" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86827.409244994866</v>
       </c>
       <c r="N47" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1072204307692308</v>
       </c>
       <c r="O47" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62533.324072401505</v>
       </c>
     </row>
@@ -5727,11 +5758,11 @@
         <v>0</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1405.1382140939836</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6772.5818636417789</v>
       </c>
       <c r="G48" s="5">
@@ -5743,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>859119.8319868109</v>
       </c>
       <c r="L48" s="5">
@@ -5751,15 +5782,15 @@
         <v>859119.8319868109</v>
       </c>
       <c r="M48" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89432.231522344751</v>
       </c>
       <c r="N48" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923085</v>
       </c>
       <c r="O48" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64409.323794573538</v>
       </c>
     </row>
@@ -5778,11 +5809,11 @@
         <v>0</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1447.2923605168032</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6975.7593195510326</v>
       </c>
       <c r="G49" s="5">
@@ -5794,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>884893.42694641522</v>
       </c>
       <c r="L49" s="5">
@@ -5802,15 +5833,15 @@
         <v>884893.42694641522</v>
       </c>
       <c r="M49" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92115.198468015064</v>
       </c>
       <c r="N49" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923081</v>
       </c>
       <c r="O49" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66341.603508410743</v>
       </c>
     </row>
@@ -5829,11 +5860,11 @@
         <v>0</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1490.7111313323073</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7185.0320991375638</v>
       </c>
       <c r="G50" s="5">
@@ -5845,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>911440.22975480766</v>
       </c>
       <c r="L50" s="5">
@@ -5853,15 +5884,15 @@
         <v>911440.22975480766</v>
       </c>
       <c r="M50" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94878.654422055522</v>
       </c>
       <c r="N50" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923082</v>
       </c>
       <c r="O50" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68331.851613663079</v>
       </c>
     </row>
@@ -5880,11 +5911,11 @@
         <v>0</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1535.4324652722767</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7400.5830621116911</v>
       </c>
       <c r="G51" s="5">
@@ -5896,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>938783.43664745195</v>
       </c>
       <c r="L51" s="5">
@@ -5904,15 +5935,15 @@
         <v>938783.43664745195</v>
       </c>
       <c r="M51" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97725.014054717263</v>
       </c>
       <c r="N51" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923091</v>
       </c>
       <c r="O51" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70381.807162072975</v>
       </c>
     </row>
@@ -5931,11 +5962,11 @@
         <v>0</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1581.4954392304451</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7622.6005539750422</v>
       </c>
       <c r="G52" s="5">
@@ -5947,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>966946.93974687555</v>
       </c>
       <c r="L52" s="5">
@@ -5955,15 +5986,15 @@
         <v>966946.93974687555</v>
       </c>
       <c r="M52" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100656.76447635876</v>
       </c>
       <c r="N52" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923088</v>
       </c>
       <c r="O52" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72493.261376935159</v>
       </c>
     </row>
@@ -5982,11 +6013,11 @@
         <v>0</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1628.9403024073586</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7851.2785705942933</v>
       </c>
       <c r="G53" s="5">
@@ -5998,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>995955.34793928184</v>
       </c>
       <c r="L53" s="5">
@@ -6006,15 +6037,15 @@
         <v>995955.34793928184</v>
       </c>
       <c r="M53" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103676.46741064952</v>
       </c>
       <c r="N53" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923087</v>
       </c>
       <c r="O53" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74668.05921824323</v>
       </c>
     </row>
@@ -6033,11 +6064,11 @@
         <v>0</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1677.8085114795795</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8086.8169277121224</v>
       </c>
       <c r="G54" s="5">
@@ -6049,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1025834.0083774603</v>
       </c>
       <c r="L54" s="5">
@@ -6057,15 +6088,15 @@
         <v>1025834.0083774603</v>
       </c>
       <c r="M54" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106786.76143296897</v>
       </c>
       <c r="N54" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923082</v>
       </c>
       <c r="O54" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>76908.100994790511</v>
       </c>
     </row>
@@ -6084,11 +6115,11 @@
         <v>0</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1728.1427668239669</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8329.421435543487</v>
       </c>
       <c r="G55" s="5">
@@ -6100,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1056609.0286287842</v>
       </c>
       <c r="L55" s="5">
@@ -6108,15 +6139,15 @@
         <v>1056609.0286287842</v>
       </c>
       <c r="M55" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109990.36427595819</v>
       </c>
       <c r="N55" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923098</v>
       </c>
       <c r="O55" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>79215.344024634251</v>
       </c>
     </row>
@@ -6135,11 +6166,11 @@
         <v>0</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1779.9870498286859</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8579.3040786097918</v>
       </c>
       <c r="G56" s="5">
@@ -6151,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1088307.2994876478</v>
       </c>
       <c r="L56" s="5">
@@ -6159,15 +6190,15 @@
         <v>1088307.2994876478</v>
       </c>
       <c r="M56" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>113290.07520423687</v>
       </c>
       <c r="N56" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923091</v>
       </c>
       <c r="O56" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>81591.804345373268</v>
       </c>
     </row>
@@ -6186,11 +6217,11 @@
         <v>0</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1833.3866613235466</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8836.6832009680857</v>
       </c>
       <c r="G57" s="5">
@@ -6202,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1120956.5184722773</v>
       </c>
       <c r="L57" s="5">
@@ -6210,15 +6241,15 @@
         <v>1120956.5184722773</v>
       </c>
       <c r="M57" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116688.77746036396</v>
       </c>
       <c r="N57" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923088</v>
       </c>
       <c r="O57" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84039.558475734462</v>
       </c>
     </row>
@@ -6237,11 +6268,11 @@
         <v>0</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1888.388261163253</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9101.7836969971286</v>
       </c>
       <c r="G58" s="5">
@@ -6253,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1154585.2140264458</v>
       </c>
       <c r="L58" s="5">
@@ -6261,15 +6292,15 @@
         <v>1154585.2140264458</v>
       </c>
       <c r="M58" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120189.44078417495</v>
       </c>
       <c r="N58" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923093</v>
       </c>
       <c r="O58" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86560.74523000652</v>
       </c>
     </row>
@@ -6288,11 +6319,11 @@
         <v>0</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1945.0399089981506</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9374.8372079070432</v>
       </c>
       <c r="G59" s="5">
@@ -6304,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1189222.770447239</v>
       </c>
       <c r="L59" s="5">
@@ -6312,15 +6343,15 @@
         <v>1189222.770447239</v>
       </c>
       <c r="M59" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>123795.1240077</v>
       </c>
       <c r="N59" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923075</v>
       </c>
       <c r="O59" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89157.567586906705</v>
       </c>
     </row>
@@ -6339,11 +6370,11 @@
         <v>0</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2003.3911062680952</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9656.082324144254</v>
       </c>
       <c r="G60" s="5">
@@ -6355,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1224899.4535606562</v>
       </c>
       <c r="L60" s="5">
@@ -6363,15 +6394,15 @@
         <v>1224899.4535606562</v>
       </c>
       <c r="M60" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>127508.97772793102</v>
       </c>
       <c r="N60" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923078</v>
       </c>
       <c r="O60" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>91832.294614513899</v>
       </c>
     </row>
@@ -6390,11 +6421,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2063.492839456138</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9945.7647938685823</v>
       </c>
       <c r="G61" s="5">
@@ -6406,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1261646.4371674759</v>
       </c>
       <c r="L61" s="5">
@@ -6414,15 +6445,15 @@
         <v>1261646.4371674759</v>
       </c>
       <c r="M61" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>131334.24705976911</v>
       </c>
       <c r="N61" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923092</v>
       </c>
       <c r="O61" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>94587.263452949337</v>
       </c>
     </row>
@@ -6441,11 +6472,11 @@
         <v>0</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2125.397624639822</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10244.137737684639</v>
       </c>
       <c r="G62" s="5">
@@ -6457,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1299495.8302825002</v>
       </c>
       <c r="L62" s="5">
@@ -6465,15 +6496,15 @@
         <v>1299495.8302825002</v>
       </c>
       <c r="M62" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>135274.27447156212</v>
       </c>
       <c r="N62" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923087</v>
       </c>
       <c r="O62" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97424.881356537808</v>
       </c>
     </row>
@@ -6492,11 +6523,11 @@
         <v>0</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2189.1595533790169</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10551.461869815179</v>
       </c>
       <c r="G63" s="5">
@@ -6508,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1338480.7051909752</v>
       </c>
       <c r="L63" s="5">
@@ -6516,15 +6547,15 @@
         <v>1338480.7051909752</v>
       </c>
       <c r="M63" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>139332.5027057089</v>
       </c>
       <c r="N63" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1072204307692308</v>
       </c>
       <c r="O63" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100347.62779723394</v>
       </c>
     </row>
@@ -6543,11 +6574,11 @@
         <v>0</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2254.8343399803875</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10868.005725909634</v>
       </c>
       <c r="G64" s="5">
@@ -6559,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1378635.1263467046</v>
       </c>
       <c r="L64" s="5">
@@ -6567,15 +6598,15 @@
         <v>1378635.1263467046</v>
       </c>
       <c r="M64" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>143512.47778688028</v>
       </c>
       <c r="N64" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923088</v>
       </c>
       <c r="O64" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103358.05663115096</v>
       </c>
     </row>
@@ -6594,11 +6625,11 @@
         <v>0</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2322.4793701797994</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11194.045897686923</v>
       </c>
       <c r="G65" s="5">
@@ -6610,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1419994.1801371058</v>
       </c>
       <c r="L65" s="5">
@@ -6618,15 +6649,15 @@
         <v>1419994.1801371058</v>
       </c>
       <c r="M65" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>147817.8521204867</v>
       </c>
       <c r="N65" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923088</v>
       </c>
       <c r="O65" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>106458.7983300855</v>
       </c>
     </row>
@@ -6645,11 +6676,11 @@
         <v>0</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2392.1537512851933</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11529.867274617531</v>
       </c>
       <c r="G66" s="5">
@@ -6661,23 +6692,23 @@
         <v>0</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1462594.0055412189</v>
       </c>
       <c r="L66" s="5">
-        <f t="shared" ref="L66:L68" si="9">J66+K66</f>
+        <f t="shared" ref="L66:L68" si="10">J66+K66</f>
         <v>1462594.0055412189</v>
       </c>
       <c r="M66" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>152252.38768410121</v>
       </c>
       <c r="N66" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923081</v>
       </c>
       <c r="O66" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>109652.56227998805</v>
       </c>
     </row>
@@ -6696,11 +6727,11 @@
         <v>0</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2463.9183638237491</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11875.763292856056</v>
       </c>
       <c r="G67" s="5">
@@ -6712,23 +6743,23 @@
         <v>0</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1506471.8257074556</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1506471.8257074556</v>
       </c>
       <c r="M67" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>156819.95931462443</v>
       </c>
       <c r="N67" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10722043076923093</v>
       </c>
       <c r="O67" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>112942.13914838769</v>
       </c>
     </row>
@@ -6747,11 +6778,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" ref="E68" si="10">E67*(1+B68)</f>
+        <f t="shared" ref="E68" si="11">E67*(1+B68)</f>
         <v>-2537.8359147384617</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12232.036191641739</v>
       </c>
       <c r="G68" s="5">
@@ -6763,23 +6794,23 @@
         <v>0</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1551665.9804786793</v>
       </c>
       <c r="L68" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1551665.9804786793</v>
       </c>
       <c r="M68" s="20">
-        <f t="shared" ref="M68" si="11">L68-L67+12*(C68+D68+E68+F68)+G68</f>
+        <f t="shared" ref="M68" si="12">L68-L67+12*(C68+D68+E68+F68)+G68</f>
         <v>161524.55809406299</v>
       </c>
       <c r="N68" s="21">
-        <f t="shared" ref="N68" si="12">M68/L67</f>
+        <f t="shared" ref="N68" si="13">M68/L67</f>
         <v>0.10722043076923081</v>
       </c>
       <c r="O68" s="20">
-        <f t="shared" ref="O68" si="13">12*(C68+D68+E68+F68)+G68</f>
+        <f t="shared" ref="O68" si="14">12*(C68+D68+E68+F68)+G68</f>
         <v>116330.40332283932</v>
       </c>
     </row>
@@ -6915,15 +6946,15 @@
       </c>
       <c r="B4" s="6">
         <f>Sheet1!L7</f>
-        <v>65662.957174080249</v>
+        <v>67507.099479097669</v>
       </c>
       <c r="C4" s="9">
         <f>-1*B4/A4</f>
-        <v>1.2969850240200578</v>
+        <v>1.3334108119331489</v>
       </c>
       <c r="D4" s="12">
         <f>C4^(1/6)-1</f>
-        <v>4.4293304599368755E-2</v>
+        <v>4.9125223671420359E-2</v>
       </c>
     </row>
   </sheetData>

--- a/excel/5/616 N Oakes - Model.xlsx
+++ b/excel/5/616 N Oakes - Model.xlsx
@@ -782,10 +782,10 @@
                   <c:v>0.23283408194697588</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20851013255057085</c:v>
+                  <c:v>0.22085731023107263</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18990774358450441</c:v>
+                  <c:v>0.20074144973053054</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.18488088158503416</c:v>
@@ -1388,10 +1388,10 @@
                   <c:v>7195.9565549090594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7824.3844515563342</c:v>
+                  <c:v>9228.3844515563342</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8471.6651851030256</c:v>
+                  <c:v>9875.6651851030256</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10542.364340656117</c:v>
@@ -3132,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3714,7 +3714,7 @@
         <v>-1028.97</v>
       </c>
       <c r="D11" s="5">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="7"/>
@@ -3749,15 +3749,15 @@
       </c>
       <c r="M11" s="20">
         <f t="shared" si="4"/>
-        <v>23709.728140002313</v>
+        <v>25113.728140002313</v>
       </c>
       <c r="N11" s="21">
         <f t="shared" si="5"/>
-        <v>0.20851013255057085</v>
+        <v>0.22085731023107263</v>
       </c>
       <c r="O11" s="20">
         <f t="shared" si="6"/>
-        <v>7824.3844515563342</v>
+        <v>9228.3844515563342</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -3772,7 +3772,7 @@
         <v>-1028.97</v>
       </c>
       <c r="D12" s="5">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="7"/>
@@ -3807,15 +3807,15 @@
       </c>
       <c r="M12" s="20">
         <f t="shared" si="4"/>
-        <v>24611.196611645784</v>
+        <v>26015.196611645784</v>
       </c>
       <c r="N12" s="21">
         <f t="shared" si="5"/>
-        <v>0.18990774358450441</v>
+        <v>0.20074144973053054</v>
       </c>
       <c r="O12" s="20">
         <f t="shared" si="6"/>
-        <v>8471.6651851030256</v>
+        <v>9875.6651851030256</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">

--- a/excel/5/616 N Oakes - Model.xlsx
+++ b/excel/5/616 N Oakes - Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>Annual Return</t>
   </si>
   <si>
-    <t>2012 to 2017</t>
+    <t>2015 to 2017</t>
   </si>
 </sst>
 </file>
@@ -3132,7 +3132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="101" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6910,8 +6910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061DCE9F-7618-B34C-987A-574E9FCD17E1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6941,20 +6941,20 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <f>SUM(Sheet1!O2:O7)</f>
-        <v>-50627.382705280004</v>
+        <f>SUM(Sheet1!O2:O4)</f>
+        <v>-65223.73</v>
       </c>
       <c r="B4" s="6">
-        <f>Sheet1!L7</f>
-        <v>67507.099479097669</v>
+        <f>Sheet1!L4</f>
+        <v>23340.451316069637</v>
       </c>
       <c r="C4" s="9">
         <f>-1*B4/A4</f>
-        <v>1.3334108119331489</v>
+        <v>0.35785213933747173</v>
       </c>
       <c r="D4" s="12">
-        <f>C4^(1/6)-1</f>
-        <v>4.9125223671420359E-2</v>
+        <f>C4^(1/3)-1</f>
+        <v>-0.29003892342094095</v>
       </c>
     </row>
   </sheetData>

--- a/excel/5/616 N Oakes - Model.xlsx
+++ b/excel/5/616 N Oakes - Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3132,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3420,6 +3420,7 @@
         <v>2019</v>
       </c>
       <c r="B6" s="4">
+        <f>B5</f>
         <v>0.03</v>
       </c>
       <c r="C6" s="5">
@@ -3477,6 +3478,7 @@
         <v>2020</v>
       </c>
       <c r="B7" s="4">
+        <f t="shared" ref="B7:B68" si="9">B6</f>
         <v>0.03</v>
       </c>
       <c r="C7" s="5">
@@ -3490,7 +3492,7 @@
         <v>-418.20847744000008</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F68" si="9">F6*(1+B7)</f>
+        <f t="shared" ref="F7:F68" si="10">F6*(1+B7)</f>
         <v>2015.71</v>
       </c>
       <c r="G7" s="5">
@@ -3534,6 +3536,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="4">
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C8" s="5">
@@ -3547,7 +3550,7 @@
         <v>-430.75473176320008</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2076.1813000000002</v>
       </c>
       <c r="G8" s="5">
@@ -3591,7 +3594,7 @@
         <v>2022</v>
       </c>
       <c r="B9" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C9" s="5">
@@ -3605,7 +3608,7 @@
         <v>-443.6773737160961</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2138.4667390000004</v>
       </c>
       <c r="G9" s="5">
@@ -3649,7 +3652,7 @@
         <v>2023</v>
       </c>
       <c r="B10" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C10" s="5">
@@ -3663,7 +3666,7 @@
         <v>-456.98769492757901</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2202.6207411700007</v>
       </c>
       <c r="G10" s="5">
@@ -3707,7 +3710,7 @@
         <v>2024</v>
       </c>
       <c r="B11" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C11" s="5">
@@ -3721,7 +3724,7 @@
         <v>-470.6973257754064</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2268.6993634051009</v>
       </c>
       <c r="G11" s="5">
@@ -3765,7 +3768,7 @@
         <v>2025</v>
       </c>
       <c r="B12" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C12" s="5">
@@ -3779,7 +3782,7 @@
         <v>-484.81824554866859</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2336.7603443072539</v>
       </c>
       <c r="G12" s="5">
@@ -3823,7 +3826,7 @@
         <v>2026</v>
       </c>
       <c r="B13" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C13" s="5">
@@ -3837,7 +3840,7 @@
         <v>-499.36279291512864</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2406.8631546364718</v>
       </c>
       <c r="G13" s="5">
@@ -3881,7 +3884,7 @@
         <v>2027</v>
       </c>
       <c r="B14" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C14" s="5">
@@ -3895,7 +3898,7 @@
         <v>-514.34367670258246</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2479.0690492755662</v>
       </c>
       <c r="G14" s="5">
@@ -3939,7 +3942,7 @@
         <v>2028</v>
       </c>
       <c r="B15" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C15" s="5">
@@ -3953,7 +3956,7 @@
         <v>-529.77398700365995</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2553.4411207538333</v>
       </c>
       <c r="G15" s="5">
@@ -3997,7 +4000,7 @@
         <v>2029</v>
       </c>
       <c r="B16" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C16" s="5">
@@ -4011,7 +4014,7 @@
         <v>-545.66720661376974</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2630.0443543764482</v>
       </c>
       <c r="G16" s="5">
@@ -4055,7 +4058,7 @@
         <v>2030</v>
       </c>
       <c r="B17" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C17" s="5">
@@ -4069,7 +4072,7 @@
         <v>-562.03722281218279</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2708.9456850077418</v>
       </c>
       <c r="G17" s="5">
@@ -4113,7 +4116,7 @@
         <v>2031</v>
       </c>
       <c r="B18" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C18" s="5">
@@ -4127,7 +4130,7 @@
         <v>-578.89833949654826</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2790.214055557974</v>
       </c>
       <c r="G18" s="5">
@@ -4171,7 +4174,7 @@
         <v>2032</v>
       </c>
       <c r="B19" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C19" s="5">
@@ -4185,7 +4188,7 @@
         <v>-596.26528968144476</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2873.9204772247135</v>
       </c>
       <c r="G19" s="5">
@@ -4229,7 +4232,7 @@
         <v>2033</v>
       </c>
       <c r="B20" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C20" s="5">
@@ -4243,7 +4246,7 @@
         <v>-614.15324837188814</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2960.1380915414552</v>
       </c>
       <c r="G20" s="5">
@@ -4287,7 +4290,7 @@
         <v>2034</v>
       </c>
       <c r="B21" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C21" s="5">
@@ -4301,7 +4304,7 @@
         <v>-632.57784582304475</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3048.9422342876987</v>
       </c>
       <c r="G21" s="5">
@@ -4345,7 +4348,7 @@
         <v>2035</v>
       </c>
       <c r="B22" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C22" s="5">
@@ -4359,7 +4362,7 @@
         <v>-651.55518119773615</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3140.4105013163298</v>
       </c>
       <c r="G22" s="5">
@@ -4403,7 +4406,7 @@
         <v>2036</v>
       </c>
       <c r="B23" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C23" s="5">
@@ -4417,7 +4420,7 @@
         <v>-671.1018366336682</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3234.6228163558199</v>
       </c>
       <c r="G23" s="5">
@@ -4461,7 +4464,7 @@
         <v>2037</v>
       </c>
       <c r="B24" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C24" s="5">
@@ -4475,7 +4478,7 @@
         <v>-691.23489173267831</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3331.6615008464946</v>
       </c>
       <c r="G24" s="5">
@@ -4519,7 +4522,7 @@
         <v>2038</v>
       </c>
       <c r="B25" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C25" s="5">
@@ -4533,7 +4536,7 @@
         <v>-711.97193848465872</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3431.6113458718896</v>
       </c>
       <c r="G25" s="5">
@@ -4577,7 +4580,7 @@
         <v>2039</v>
       </c>
       <c r="B26" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C26" s="5">
@@ -4591,7 +4594,7 @@
         <v>-733.33109663919845</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3534.5596862480465</v>
       </c>
       <c r="G26" s="5">
@@ -4635,7 +4638,7 @@
         <v>2040</v>
       </c>
       <c r="B27" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C27" s="5">
@@ -4649,7 +4652,7 @@
         <v>-755.33102953837442</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3640.5964768354879</v>
       </c>
       <c r="G27" s="5">
@@ -4693,7 +4696,7 @@
         <v>2041</v>
       </c>
       <c r="B28" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C28" s="5">
@@ -4707,7 +4710,7 @@
         <v>-777.99096042452572</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3749.8143711405528</v>
       </c>
       <c r="G28" s="5">
@@ -4751,7 +4754,7 @@
         <v>2042</v>
       </c>
       <c r="B29" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C29" s="5">
@@ -4765,7 +4768,7 @@
         <v>-801.33068923726148</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3862.3088022747693</v>
       </c>
       <c r="G29" s="5">
@@ -4809,7 +4812,7 @@
         <v>2043</v>
       </c>
       <c r="B30" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C30" s="5">
@@ -4823,7 +4826,7 @@
         <v>-825.37060991437932</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3978.1780663430122</v>
       </c>
       <c r="G30" s="5">
@@ -4867,7 +4870,7 @@
         <v>2044</v>
       </c>
       <c r="B31" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C31" s="5">
@@ -4881,7 +4884,7 @@
         <v>-850.1317282118107</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4097.5234083333025</v>
       </c>
       <c r="G31" s="5">
@@ -4925,7 +4928,7 @@
         <v>2045</v>
       </c>
       <c r="B32" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C32" s="5">
@@ -4939,7 +4942,7 @@
         <v>-875.63568005816501</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4220.4491105833022</v>
       </c>
       <c r="G32" s="5">
@@ -4983,7 +4986,7 @@
         <v>2046</v>
       </c>
       <c r="B33" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C33" s="5">
@@ -4997,7 +5000,7 @@
         <v>-901.90475045991002</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4347.0625839008017</v>
       </c>
       <c r="G33" s="5">
@@ -5034,7 +5037,7 @@
         <v>2047</v>
       </c>
       <c r="B34" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C34" s="5">
@@ -5048,7 +5051,7 @@
         <v>-928.96189297370734</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4477.4744614178262</v>
       </c>
       <c r="G34" s="5">
@@ -5085,7 +5088,7 @@
         <v>2048</v>
       </c>
       <c r="B35" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C35" s="5">
@@ -5099,7 +5102,7 @@
         <v>-956.83074976291857</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4611.7986952603615</v>
       </c>
       <c r="G35" s="5">
@@ -5136,7 +5139,7 @@
         <v>2049</v>
       </c>
       <c r="B36" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C36" s="5">
@@ -5150,7 +5153,7 @@
         <v>-985.53567225580616</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4750.1526561181727</v>
       </c>
       <c r="G36" s="5">
@@ -5187,7 +5190,7 @@
         <v>2050</v>
       </c>
       <c r="B37" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C37" s="5">
@@ -5201,7 +5204,7 @@
         <v>-1015.1017424234803</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4892.6572358017183</v>
       </c>
       <c r="G37" s="5">
@@ -5238,7 +5241,7 @@
         <v>2051</v>
       </c>
       <c r="B38" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C38" s="5">
@@ -5252,7 +5255,7 @@
         <v>-1045.5547946961847</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5039.4369528757697</v>
       </c>
       <c r="G38" s="5">
@@ -5289,7 +5292,7 @@
         <v>2052</v>
       </c>
       <c r="B39" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C39" s="5">
@@ -5303,7 +5306,7 @@
         <v>-1076.9214385370703</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5190.6200614620429</v>
       </c>
       <c r="G39" s="5">
@@ -5340,7 +5343,7 @@
         <v>2053</v>
       </c>
       <c r="B40" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C40" s="5">
@@ -5354,7 +5357,7 @@
         <v>-1109.2290816931825</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5346.3386633059044</v>
       </c>
       <c r="G40" s="5">
@@ -5391,7 +5394,7 @@
         <v>2054</v>
       </c>
       <c r="B41" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C41" s="5">
@@ -5405,7 +5408,7 @@
         <v>-1142.505954143978</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5506.7288232050814</v>
       </c>
       <c r="G41" s="5">
@@ -5442,7 +5445,7 @@
         <v>2055</v>
       </c>
       <c r="B42" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C42" s="5">
@@ -5456,7 +5459,7 @@
         <v>-1176.7811327682973</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5671.9306879012338</v>
       </c>
       <c r="G42" s="5">
@@ -5493,7 +5496,7 @@
         <v>2056</v>
       </c>
       <c r="B43" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C43" s="5">
@@ -5507,7 +5510,7 @@
         <v>-1212.0845667513463</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5842.0886085382708</v>
       </c>
       <c r="G43" s="5">
@@ -5544,7 +5547,7 @@
         <v>2057</v>
       </c>
       <c r="B44" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C44" s="5">
@@ -5558,7 +5561,7 @@
         <v>-1248.4471037538867</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6017.3512667944187</v>
       </c>
       <c r="G44" s="5">
@@ -5595,7 +5598,7 @@
         <v>2058</v>
       </c>
       <c r="B45" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C45" s="5">
@@ -5609,7 +5612,7 @@
         <v>-1285.9005168665033</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6197.8718047982511</v>
       </c>
       <c r="G45" s="5">
@@ -5646,7 +5649,7 @@
         <v>2059</v>
       </c>
       <c r="B46" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C46" s="5">
@@ -5660,7 +5663,7 @@
         <v>-1324.4775323724984</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6383.8079589421986</v>
       </c>
       <c r="G46" s="5">
@@ -5697,7 +5700,7 @@
         <v>2060</v>
       </c>
       <c r="B47" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C47" s="5">
@@ -5711,7 +5714,7 @@
         <v>-1364.2118583436734</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6575.3221977104649</v>
       </c>
       <c r="G47" s="5">
@@ -5748,7 +5751,7 @@
         <v>2061</v>
       </c>
       <c r="B48" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C48" s="5">
@@ -5762,7 +5765,7 @@
         <v>-1405.1382140939836</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6772.5818636417789</v>
       </c>
       <c r="G48" s="5">
@@ -5799,7 +5802,7 @@
         <v>2062</v>
       </c>
       <c r="B49" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C49" s="5">
@@ -5813,7 +5816,7 @@
         <v>-1447.2923605168032</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6975.7593195510326</v>
       </c>
       <c r="G49" s="5">
@@ -5850,7 +5853,7 @@
         <v>2063</v>
       </c>
       <c r="B50" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C50" s="5">
@@ -5864,7 +5867,7 @@
         <v>-1490.7111313323073</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7185.0320991375638</v>
       </c>
       <c r="G50" s="5">
@@ -5901,7 +5904,7 @@
         <v>2064</v>
       </c>
       <c r="B51" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C51" s="5">
@@ -5915,7 +5918,7 @@
         <v>-1535.4324652722767</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7400.5830621116911</v>
       </c>
       <c r="G51" s="5">
@@ -5952,7 +5955,7 @@
         <v>2065</v>
       </c>
       <c r="B52" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C52" s="5">
@@ -5966,7 +5969,7 @@
         <v>-1581.4954392304451</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7622.6005539750422</v>
       </c>
       <c r="G52" s="5">
@@ -6003,7 +6006,7 @@
         <v>2066</v>
       </c>
       <c r="B53" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C53" s="5">
@@ -6017,7 +6020,7 @@
         <v>-1628.9403024073586</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7851.2785705942933</v>
       </c>
       <c r="G53" s="5">
@@ -6054,7 +6057,7 @@
         <v>2067</v>
       </c>
       <c r="B54" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C54" s="5">
@@ -6068,7 +6071,7 @@
         <v>-1677.8085114795795</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8086.8169277121224</v>
       </c>
       <c r="G54" s="5">
@@ -6105,7 +6108,7 @@
         <v>2068</v>
       </c>
       <c r="B55" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C55" s="5">
@@ -6119,7 +6122,7 @@
         <v>-1728.1427668239669</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8329.421435543487</v>
       </c>
       <c r="G55" s="5">
@@ -6156,7 +6159,7 @@
         <v>2069</v>
       </c>
       <c r="B56" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C56" s="5">
@@ -6170,7 +6173,7 @@
         <v>-1779.9870498286859</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8579.3040786097918</v>
       </c>
       <c r="G56" s="5">
@@ -6207,7 +6210,7 @@
         <v>2070</v>
       </c>
       <c r="B57" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C57" s="5">
@@ -6221,7 +6224,7 @@
         <v>-1833.3866613235466</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8836.6832009680857</v>
       </c>
       <c r="G57" s="5">
@@ -6258,7 +6261,7 @@
         <v>2071</v>
       </c>
       <c r="B58" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C58" s="5">
@@ -6272,7 +6275,7 @@
         <v>-1888.388261163253</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9101.7836969971286</v>
       </c>
       <c r="G58" s="5">
@@ -6309,7 +6312,7 @@
         <v>2072</v>
       </c>
       <c r="B59" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C59" s="5">
@@ -6323,7 +6326,7 @@
         <v>-1945.0399089981506</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9374.8372079070432</v>
       </c>
       <c r="G59" s="5">
@@ -6360,7 +6363,7 @@
         <v>2073</v>
       </c>
       <c r="B60" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C60" s="5">
@@ -6374,7 +6377,7 @@
         <v>-2003.3911062680952</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9656.082324144254</v>
       </c>
       <c r="G60" s="5">
@@ -6411,7 +6414,7 @@
         <v>2074</v>
       </c>
       <c r="B61" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C61" s="5">
@@ -6425,7 +6428,7 @@
         <v>-2063.492839456138</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9945.7647938685823</v>
       </c>
       <c r="G61" s="5">
@@ -6462,7 +6465,7 @@
         <v>2075</v>
       </c>
       <c r="B62" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C62" s="5">
@@ -6476,7 +6479,7 @@
         <v>-2125.397624639822</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10244.137737684639</v>
       </c>
       <c r="G62" s="5">
@@ -6513,7 +6516,7 @@
         <v>2076</v>
       </c>
       <c r="B63" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C63" s="5">
@@ -6527,7 +6530,7 @@
         <v>-2189.1595533790169</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10551.461869815179</v>
       </c>
       <c r="G63" s="5">
@@ -6564,7 +6567,7 @@
         <v>2077</v>
       </c>
       <c r="B64" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C64" s="5">
@@ -6578,7 +6581,7 @@
         <v>-2254.8343399803875</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10868.005725909634</v>
       </c>
       <c r="G64" s="5">
@@ -6615,7 +6618,7 @@
         <v>2078</v>
       </c>
       <c r="B65" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C65" s="5">
@@ -6629,7 +6632,7 @@
         <v>-2322.4793701797994</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11194.045897686923</v>
       </c>
       <c r="G65" s="5">
@@ -6666,7 +6669,7 @@
         <v>2079</v>
       </c>
       <c r="B66" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C66" s="5">
@@ -6680,7 +6683,7 @@
         <v>-2392.1537512851933</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11529.867274617531</v>
       </c>
       <c r="G66" s="5">
@@ -6696,7 +6699,7 @@
         <v>1462594.0055412189</v>
       </c>
       <c r="L66" s="5">
-        <f t="shared" ref="L66:L68" si="10">J66+K66</f>
+        <f t="shared" ref="L66:L68" si="11">J66+K66</f>
         <v>1462594.0055412189</v>
       </c>
       <c r="M66" s="20">
@@ -6717,7 +6720,7 @@
         <v>2080</v>
       </c>
       <c r="B67" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C67" s="5">
@@ -6731,7 +6734,7 @@
         <v>-2463.9183638237491</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11875.763292856056</v>
       </c>
       <c r="G67" s="5">
@@ -6747,7 +6750,7 @@
         <v>1506471.8257074556</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1506471.8257074556</v>
       </c>
       <c r="M67" s="20">
@@ -6768,7 +6771,7 @@
         <v>2081</v>
       </c>
       <c r="B68" s="4">
-        <f>B8</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="C68" s="5">
@@ -6778,11 +6781,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" ref="E68" si="11">E67*(1+B68)</f>
+        <f t="shared" ref="E68" si="12">E67*(1+B68)</f>
         <v>-2537.8359147384617</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12232.036191641739</v>
       </c>
       <c r="G68" s="5">
@@ -6798,19 +6801,19 @@
         <v>1551665.9804786793</v>
       </c>
       <c r="L68" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1551665.9804786793</v>
       </c>
       <c r="M68" s="20">
-        <f t="shared" ref="M68" si="12">L68-L67+12*(C68+D68+E68+F68)+G68</f>
+        <f t="shared" ref="M68" si="13">L68-L67+12*(C68+D68+E68+F68)+G68</f>
         <v>161524.55809406299</v>
       </c>
       <c r="N68" s="21">
-        <f t="shared" ref="N68" si="13">M68/L67</f>
+        <f t="shared" ref="N68" si="14">M68/L67</f>
         <v>0.10722043076923081</v>
       </c>
       <c r="O68" s="20">
-        <f t="shared" ref="O68" si="14">12*(C68+D68+E68+F68)+G68</f>
+        <f t="shared" ref="O68" si="15">12*(C68+D68+E68+F68)+G68</f>
         <v>116330.40332283932</v>
       </c>
     </row>
@@ -6910,7 +6913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061DCE9F-7618-B34C-987A-574E9FCD17E1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
